--- a/src/test/resources/dataImport.xlsx
+++ b/src/test/resources/dataImport.xlsx
@@ -427,7 +427,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
